--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.38255</v>
+        <v>0.1344</v>
       </c>
       <c r="E2">
-        <v>0.0157</v>
+        <v>0.01325</v>
       </c>
       <c r="F2">
-        <v>0.0549</v>
+        <v>0.107</v>
       </c>
       <c r="G2">
-        <v>0.2609269795725395</v>
+        <v>0.2607537390146086</v>
       </c>
       <c r="H2">
-        <v>0.2609269795725395</v>
+        <v>0.2607537390146086</v>
       </c>
       <c r="I2">
-        <v>0.2533284997196276</v>
+        <v>0.2745081005950571</v>
       </c>
       <c r="J2">
-        <v>0.2177076065095923</v>
+        <v>0.2334722844934188</v>
       </c>
       <c r="K2">
-        <v>10.562</v>
+        <v>14.335</v>
       </c>
       <c r="L2">
-        <v>0.1721906128238152</v>
+        <v>0.2075460771112945</v>
       </c>
       <c r="M2">
-        <v>11.962</v>
+        <v>10.92</v>
       </c>
       <c r="N2">
-        <v>0.04141106418334141</v>
+        <v>0.02532643736809147</v>
       </c>
       <c r="O2">
-        <v>1.132550653285363</v>
+        <v>0.7617718869898851</v>
       </c>
       <c r="P2">
-        <v>11.8</v>
+        <v>10.92</v>
       </c>
       <c r="Q2">
-        <v>0.04085023887004084</v>
+        <v>0.02532643736809147</v>
       </c>
       <c r="R2">
-        <v>1.117212649119485</v>
+        <v>0.7617718869898851</v>
       </c>
       <c r="S2">
-        <v>0.1619999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.01354288580504932</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>25.94</v>
+        <v>36.83</v>
       </c>
       <c r="V2">
-        <v>0.0898012878210898</v>
+        <v>0.08541874434677736</v>
       </c>
       <c r="W2">
-        <v>-0.1395512068104856</v>
+        <v>0.1072853111653447</v>
       </c>
       <c r="X2">
-        <v>0.02954855057207974</v>
+        <v>0.01844135153902312</v>
       </c>
       <c r="Y2">
-        <v>-0.1690997573825653</v>
+        <v>0.08884395962632161</v>
       </c>
       <c r="Z2">
-        <v>0.6305250492511242</v>
+        <v>0.6861817856681602</v>
       </c>
       <c r="AA2">
-        <v>0.0004871837412335653</v>
+        <v>0.1400038669760248</v>
       </c>
       <c r="AB2">
-        <v>0.02828863575011744</v>
+        <v>0.01863158566370027</v>
       </c>
       <c r="AC2">
-        <v>-0.02977511125557943</v>
+        <v>0.1213722813123245</v>
       </c>
       <c r="AD2">
-        <v>82.75</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="AE2">
-        <v>3.385415778488811</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>86.13541577848881</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="AG2">
-        <v>60.19541577848881</v>
+        <v>47.23999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.2296972500308359</v>
+        <v>0.1631666796056207</v>
       </c>
       <c r="AI2">
-        <v>0.5644396315710162</v>
+        <v>0.5454486472458314</v>
       </c>
       <c r="AJ2">
-        <v>0.172452318621777</v>
+        <v>0.09874375535628434</v>
       </c>
       <c r="AK2">
-        <v>0.4752391636410596</v>
+        <v>0.4027280477408354</v>
       </c>
       <c r="AL2">
-        <v>2.106</v>
+        <v>3.25</v>
       </c>
       <c r="AM2">
-        <v>1.352</v>
+        <v>2.561</v>
       </c>
       <c r="AN2">
-        <v>4.670128111067216</v>
+        <v>4.25240263024785</v>
       </c>
       <c r="AO2">
-        <v>7.028490028490029</v>
+        <v>5.833846153846153</v>
       </c>
       <c r="AP2">
-        <v>3.397224210084588</v>
+        <v>2.389479008598887</v>
       </c>
       <c r="AQ2">
-        <v>10.94822485207101</v>
+        <v>7.403358063256539</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NZX Limited (NZSE:NZX)</t>
+          <t>General Capital Limited (NZSE:GEN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,125 +727,113 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0101</v>
-      </c>
-      <c r="E3">
-        <v>0.0157</v>
-      </c>
-      <c r="F3">
-        <v>0.0549</v>
-      </c>
       <c r="G3">
-        <v>0.3363028953229399</v>
+        <v>0.5354609929078015</v>
       </c>
       <c r="H3">
-        <v>0.3363028953229399</v>
+        <v>0.5354609929078015</v>
       </c>
       <c r="I3">
-        <v>0.3243949070228813</v>
+        <v>0.7304964539007093</v>
       </c>
       <c r="J3">
-        <v>0.226304066089772</v>
+        <v>0.5025401136763744</v>
       </c>
       <c r="K3">
-        <v>9.16</v>
+        <v>0.097</v>
       </c>
       <c r="L3">
-        <v>0.2040089086859688</v>
+        <v>0.03439716312056738</v>
       </c>
       <c r="M3">
-        <v>10.2</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.04034810126582278</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.11353711790393</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>10.2</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.04034810126582278</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.11353711790393</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>10.6</v>
+        <v>7.43</v>
       </c>
       <c r="V3">
-        <v>0.04193037974683544</v>
+        <v>0.9537869062901155</v>
       </c>
       <c r="W3">
-        <v>0.2072398190045249</v>
+        <v>0.0162751677852349</v>
       </c>
       <c r="X3">
-        <v>0.02774869951433784</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="Y3">
-        <v>0.179491119490187</v>
+        <v>-0.0007755132377393892</v>
       </c>
       <c r="Z3">
-        <v>1.119049317056862</v>
+        <v>1.2</v>
       </c>
       <c r="AA3">
-        <v>0.2532454106049503</v>
+        <v>0.6030481364116492</v>
       </c>
       <c r="AB3">
-        <v>0.0268473494206399</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="AC3">
-        <v>0.2263980611843104</v>
+        <v>0.585997455388675</v>
       </c>
       <c r="AD3">
-        <v>32.3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.523343373363144</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>34.82334337336314</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>24.22334337336314</v>
+        <v>-7.43</v>
       </c>
       <c r="AH3">
-        <v>0.1210727299284573</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.4550682424245035</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.08744152416323883</v>
+        <v>-20.63888888888887</v>
       </c>
       <c r="AK3">
-        <v>0.3674471307708398</v>
+        <v>6.19166666666667</v>
       </c>
       <c r="AL3">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="AM3">
-        <v>0.9159999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="AN3">
-        <v>1.949305974652987</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>8.323353293413174</v>
+        <v>1.609375</v>
       </c>
       <c r="AP3">
-        <v>1.461879503522217</v>
+        <v>-3.589371980676328</v>
       </c>
       <c r="AQ3">
-        <v>15.17467248908297</v>
+        <v>1.609375</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blackwell Global Holdings Limited (NZSE:BGI)</t>
+          <t>NZX Limited (NZSE:NZX)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -864,101 +852,125 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.0188</v>
+      </c>
+      <c r="E4">
+        <v>-0.0645</v>
+      </c>
+      <c r="F4">
+        <v>0.107</v>
+      </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3484536082474227</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2488316151202749</v>
       </c>
       <c r="K4">
-        <v>-0.376</v>
+        <v>11.2</v>
       </c>
       <c r="L4">
-        <v>-1.347670250896057</v>
+        <v>0.2309278350515464</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.02412649834225963</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8446428571428573</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.02412649834225963</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.8446428571428573</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>1.03</v>
+        <v>13.8</v>
       </c>
       <c r="V4">
-        <v>0.4345991561181434</v>
+        <v>0.03519510328997705</v>
       </c>
       <c r="W4">
-        <v>-0.4530120481927711</v>
+        <v>0.2685851318944844</v>
       </c>
       <c r="X4">
-        <v>0.03134840162982164</v>
+        <v>0.01749045952692515</v>
       </c>
       <c r="Y4">
-        <v>-0.4843604498225927</v>
+        <v>0.2510946723675592</v>
       </c>
       <c r="Z4">
-        <v>0.07664835164835165</v>
+        <v>1.125290023201856</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.2800077339520495</v>
       </c>
       <c r="AB4">
-        <v>0.02959993172101357</v>
+        <v>0.01722262595864622</v>
       </c>
       <c r="AC4">
-        <v>-0.02959993172101357</v>
+        <v>0.2627851079934033</v>
       </c>
       <c r="AD4">
-        <v>1.85</v>
+        <v>30.9</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.85</v>
+        <v>30.9</v>
       </c>
       <c r="AG4">
-        <v>0.8200000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="AH4">
-        <v>0.438388625592417</v>
+        <v>0.07304964539007092</v>
       </c>
       <c r="AI4">
-        <v>0.8193091231178034</v>
+        <v>0.4221311475409836</v>
       </c>
       <c r="AJ4">
-        <v>0.2570532915360502</v>
+        <v>0.04178885630498533</v>
       </c>
       <c r="AK4">
-        <v>0.6677524429967427</v>
+        <v>0.2878787878787879</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.281</v>
+      </c>
+      <c r="AN4">
+        <v>1.745762711864407</v>
+      </c>
+      <c r="AO4">
+        <v>8.578680203045685</v>
+      </c>
+      <c r="AP4">
+        <v>0.9661016949152541</v>
+      </c>
+      <c r="AQ4">
+        <v>13.1928181108509</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +981,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Geneva Finance Limited (NZSE:GFL)</t>
+          <t>Blackwell Global Holdings Limited (NZSE:BGI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -977,9 +989,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.755</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -987,103 +996,94 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00486976319556915</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003603308546331848</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.09</v>
+        <v>-0.452</v>
       </c>
       <c r="L5">
-        <v>0.1421768707482993</v>
+        <v>-1.815261044176707</v>
       </c>
       <c r="M5">
-        <v>1.762</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.06909803921568627</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.8430622009569378</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.6</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.06274509803921569</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.7655502392344499</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1619999999999999</v>
-      </c>
-      <c r="T5">
-        <v>0.09194097616345058</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>12.3</v>
+        <v>1.5</v>
       </c>
       <c r="V5">
-        <v>0.4823529411764706</v>
+        <v>0.3768844221105528</v>
       </c>
       <c r="W5">
-        <v>0.1123655913978494</v>
+        <v>-1.034324942791762</v>
       </c>
       <c r="X5">
-        <v>0.03783898711886672</v>
+        <v>0.0193922435511211</v>
       </c>
       <c r="Y5">
-        <v>0.07452660427898272</v>
+        <v>-1.053717186342883</v>
       </c>
       <c r="Z5">
-        <v>0.2704091170485614</v>
+        <v>0.190512624330528</v>
       </c>
       <c r="AA5">
-        <v>0.0009743674824671306</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03092465827261241</v>
+        <v>0.02004054536875433</v>
       </c>
       <c r="AC5">
-        <v>-0.02995029079014528</v>
+        <v>-0.02004054536875433</v>
       </c>
       <c r="AD5">
-        <v>48.6</v>
+        <v>1.67</v>
       </c>
       <c r="AE5">
-        <v>0.8620724051256674</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>49.46207240512567</v>
+        <v>1.67</v>
       </c>
       <c r="AG5">
-        <v>37.16207240512567</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.6598279745764287</v>
+        <v>0.295575221238938</v>
       </c>
       <c r="AI5">
-        <v>0.7288618023606034</v>
+        <v>0.8789473684210526</v>
       </c>
       <c r="AJ5">
-        <v>0.593055272172675</v>
+        <v>0.04096385542168673</v>
       </c>
       <c r="AK5">
-        <v>0.6688388462935991</v>
+        <v>0.4249999999999999</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>199.1803278688525</v>
-      </c>
-      <c r="AP5">
-        <v>152.3035754308429</v>
       </c>
     </row>
     <row r="6">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>General Capital Limited (NZSE:GEN)</t>
+          <t>Geneva Finance Limited (NZSE:GFL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1102,113 +1102,110 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>0.091</v>
+      </c>
       <c r="G6">
-        <v>0.6198630136986302</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.6198630136986302</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6178082191780823</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6178082191780823</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-0.312</v>
+        <v>3.49</v>
       </c>
       <c r="L6">
-        <v>-0.2136986301369863</v>
+        <v>0.1994285714285714</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>1.46</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.05347985347985348</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.4183381088825214</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>1.46</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.05347985347985348</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.4183381088825214</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>2.01</v>
+        <v>14.1</v>
       </c>
       <c r="V6">
-        <v>0.2454212454212454</v>
+        <v>0.5164835164835164</v>
       </c>
       <c r="W6">
-        <v>-0.3914680050188206</v>
+        <v>0.1982954545454546</v>
       </c>
       <c r="X6">
-        <v>0.02697733977922131</v>
+        <v>0.02757797964318992</v>
       </c>
       <c r="Y6">
-        <v>-0.4184453447980419</v>
+        <v>0.1707174749022646</v>
       </c>
       <c r="Z6">
-        <v>-1.73190984578885</v>
+        <v>0.3246753246753246</v>
       </c>
       <c r="AA6">
-        <v>-1.069988137603796</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02697733977922131</v>
+        <v>0.02366164015557214</v>
       </c>
       <c r="AC6">
-        <v>-1.096965477383018</v>
+        <v>-0.02366164015557214</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="AG6">
-        <v>-2.01</v>
+        <v>37.4</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.6535532994923858</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.7074175824175825</v>
       </c>
       <c r="AJ6">
-        <v>-0.3252427184466019</v>
+        <v>0.5780525502318392</v>
       </c>
       <c r="AK6">
-        <v>-0.5088607594936708</v>
+        <v>0.6371379897785349</v>
       </c>
       <c r="AL6">
-        <v>0.436</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.436</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>2.068807339449541</v>
-      </c>
-      <c r="AP6">
-        <v>-2.220994475138121</v>
-      </c>
-      <c r="AQ6">
-        <v>2.068807339449541</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
